--- a/time_tests.xlsx
+++ b/time_tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\studia\sem3\alg_geometryczne\project\Geometric-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73BC291-6F9B-4C0F-9F9A-85C02670ED1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D37C1A-4EB6-456C-8BEF-66961D3F4089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="1590" windowWidth="29040" windowHeight="15720" xr2:uid="{D2C78DEC-3383-47A7-B62A-0BE3E391D476}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>KD Tree</t>
   </si>
@@ -58,13 +58,19 @@
   <si>
     <t>test</t>
   </si>
+  <si>
+    <t>KD-Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QuadTree </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -107,10 +113,7 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -120,8 +123,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -593,7 +599,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.0000000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1280,7 +1286,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.0000000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00000" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1325,6 +1331,631 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Porównanie czasu przeszukiwania zakresowego struktur</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$B$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KD-Tree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$A$43:$A$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$B$43:$B$52</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>8.3560000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8780000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0254999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2417000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3143999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.5890000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7059E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.7530000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.3910000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.5111000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-67A6-4925-B914-C765BF414242}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$C$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QuadTree </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$A$43:$A$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$C$43:$C$52</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7.5000000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.3300000000000005E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4963999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0823999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3313000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.048E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7301E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.1399999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.5480000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.3808000000000002E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-67A6-4925-B914-C765BF414242}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="209042016"/>
+        <c:axId val="209043456"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="209042016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>numer</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> testu</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="209043456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="209043456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>czas</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> [s]</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="209042016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.44954461942257218"/>
+          <c:y val="0.86922121675089126"/>
+          <c:w val="0.28351115485564304"/>
+          <c:h val="8.3955811493712548E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1471,6 +2102,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1975,6 +2646,509 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2546,6 +3720,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>375048</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>155378</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>89298</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>41078</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Wykres 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F974F3D5-DE42-E500-FFFC-3006AACBB1FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2871,10 +4081,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F53C4A60-D584-4650-9412-32198B873520}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2885,11 +4095,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -2903,7 +4113,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" s="1">
@@ -2914,7 +4124,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="B4" s="1">
@@ -2925,7 +4135,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
       <c r="B5" s="1">
@@ -2936,7 +4146,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
       <c r="B6" s="1">
@@ -2947,7 +4157,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
       <c r="B7" s="1">
@@ -2958,214 +4168,343 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
     </row>
     <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>1</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>8.3560000000000004E-4</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>7.5000000000000002E-4</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>2</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>1.8780000000000001E-4</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>8.3300000000000005E-5</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+      <c r="A23" s="3">
         <v>3</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>1.0254999999999999E-3</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>1.4963999999999999E-3</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+      <c r="A24" s="3">
         <v>4</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="5">
         <v>2.2417000000000001E-3</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="5">
         <v>2.0823999999999999E-3</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+      <c r="A25" s="3">
         <v>5</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <v>3.3143999999999999E-3</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <v>3.3313000000000001E-3</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
+      <c r="A26" s="3">
         <v>6</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="5">
         <v>8.5500000000000005E-5</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="5">
         <v>9.8099999999999999E-5</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
+      <c r="A27" s="3">
         <v>7</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="5">
         <v>4.0099999999999999E-5</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="5">
         <v>4.35E-5</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
+      <c r="A28" s="3">
         <v>8</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="5">
         <v>3.3500000000000001E-5</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="5">
         <v>4.1699999999999997E-5</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
+      <c r="A29" s="3">
         <v>9</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="5">
         <v>3.2400000000000001E-5</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="5">
         <v>3.9700000000000003E-5</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
+      <c r="A30" s="3">
         <v>10</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="5">
         <v>4.5000000000000003E-5</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="5">
         <v>6.4700000000000001E-5</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
+      <c r="A31" s="3">
         <v>11</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="5">
         <v>3.6000000000000001E-5</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="5">
         <v>4.1199999999999999E-5</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
+      <c r="A32" s="3">
         <v>12</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="5">
         <v>6.5890000000000002E-4</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="5">
         <v>7.048E-4</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
+      <c r="A33" s="3">
         <v>13</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="5">
         <v>4.74E-5</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="5">
         <v>5.9599999999999999E-5</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
+      <c r="A34" s="3">
         <v>14</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="5">
         <v>1.7059E-3</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="5">
         <v>1.7301E-3</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
+      <c r="A35" s="3">
         <v>15</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="5">
         <v>4.7530000000000001E-4</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="5">
         <v>4.1399999999999998E-4</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
+      <c r="A36" s="3">
         <v>16</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="5">
         <v>5.3910000000000004E-4</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="5">
         <v>5.5480000000000004E-4</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
+      <c r="A37" s="3">
         <v>17</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="5">
         <v>3.5111000000000001E-3</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="5">
+        <v>3.3808000000000002E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>1</v>
+      </c>
+      <c r="B43" s="5">
+        <v>8.3560000000000004E-4</v>
+      </c>
+      <c r="C43" s="5">
+        <v>7.5000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>2</v>
+      </c>
+      <c r="B44" s="5">
+        <v>1.8780000000000001E-4</v>
+      </c>
+      <c r="C44" s="5">
+        <v>8.3300000000000005E-5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>3</v>
+      </c>
+      <c r="B45" s="5">
+        <v>1.0254999999999999E-3</v>
+      </c>
+      <c r="C45" s="5">
+        <v>1.4963999999999999E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>4</v>
+      </c>
+      <c r="B46" s="5">
+        <v>2.2417000000000001E-3</v>
+      </c>
+      <c r="C46" s="5">
+        <v>2.0823999999999999E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>5</v>
+      </c>
+      <c r="B47" s="5">
+        <v>3.3143999999999999E-3</v>
+      </c>
+      <c r="C47" s="5">
+        <v>3.3313000000000001E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>12</v>
+      </c>
+      <c r="B48" s="5">
+        <v>6.5890000000000002E-4</v>
+      </c>
+      <c r="C48" s="5">
+        <v>7.048E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>14</v>
+      </c>
+      <c r="B49" s="5">
+        <v>1.7059E-3</v>
+      </c>
+      <c r="C49" s="5">
+        <v>1.7301E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>15</v>
+      </c>
+      <c r="B50" s="5">
+        <v>4.7530000000000001E-4</v>
+      </c>
+      <c r="C50" s="5">
+        <v>4.1399999999999998E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>16</v>
+      </c>
+      <c r="B51" s="5">
+        <v>5.3910000000000004E-4</v>
+      </c>
+      <c r="C51" s="5">
+        <v>5.5480000000000004E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>17</v>
+      </c>
+      <c r="B52" s="5">
+        <v>3.5111000000000001E-3</v>
+      </c>
+      <c r="C52" s="5">
         <v>3.3808000000000002E-3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A41:C41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
